--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BF/20/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BF/20/seed4/result_data_KNN.xlsx
@@ -474,7 +474,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>12.504</v>
+        <v>12.848</v>
       </c>
     </row>
     <row r="3">
@@ -491,7 +491,7 @@
         <v>-6.85</v>
       </c>
       <c r="E3" t="n">
-        <v>12.182</v>
+        <v>12.974</v>
       </c>
     </row>
     <row r="4">
@@ -525,7 +525,7 @@
         <v>-6.27</v>
       </c>
       <c r="E5" t="n">
-        <v>13.396</v>
+        <v>13.165</v>
       </c>
     </row>
     <row r="6">
@@ -584,7 +584,7 @@
         <v>-19.24</v>
       </c>
       <c r="B9" t="n">
-        <v>7.651999999999999</v>
+        <v>6.795</v>
       </c>
       <c r="C9" t="n">
         <v>-13.02</v>
@@ -627,7 +627,7 @@
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>13.396</v>
+        <v>13.012</v>
       </c>
     </row>
     <row r="12">
@@ -644,7 +644,7 @@
         <v>-10.06</v>
       </c>
       <c r="E12" t="n">
-        <v>13.396</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -652,7 +652,7 @@
         <v>-21.95</v>
       </c>
       <c r="B13" t="n">
-        <v>7.188</v>
+        <v>6.472</v>
       </c>
       <c r="C13" t="n">
         <v>-13.63</v>
@@ -703,7 +703,7 @@
         <v>-20.57</v>
       </c>
       <c r="B16" t="n">
-        <v>6.036</v>
+        <v>5.825</v>
       </c>
       <c r="C16" t="n">
         <v>-9.779999999999999</v>
@@ -737,7 +737,7 @@
         <v>-23.05</v>
       </c>
       <c r="B18" t="n">
-        <v>5.254</v>
+        <v>6.313</v>
       </c>
       <c r="C18" t="n">
         <v>-15.19</v>
@@ -771,7 +771,7 @@
         <v>-22.69</v>
       </c>
       <c r="B20" t="n">
-        <v>5.254</v>
+        <v>6.661</v>
       </c>
       <c r="C20" t="n">
         <v>-14.65</v>
@@ -797,7 +797,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>13.578</v>
+        <v>12.988</v>
       </c>
     </row>
     <row r="22">
